--- a/modules/azzubair_family.xlsx
+++ b/modules/azzubair_family.xlsx
@@ -572,7 +572,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMNAH</t>
+          <t>AZEMAN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -582,14 +582,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Daughter</t>
+          <t>Son</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AZEMAN</t>
+          <t>AZIZAH</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -599,14 +599,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Son</t>
+          <t>Daughter</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AZIZAH</t>
+          <t>AZIAH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -623,7 +623,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AZIAH</t>
+          <t>AMNAH</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -640,63 +640,63 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AZZUBAIR</t>
+          <t>KARTINAH</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KARTINAH</t>
+          <t>HAMZAH</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Son</t>
+          <t>Daughter</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AMMAR</t>
+          <t>FUZIAH</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KARTINAH</t>
+          <t>HAMZAH</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Son</t>
+          <t>Daughter</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IZZAHTI</t>
+          <t>HANAFIAH</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>KARTINAH</t>
+          <t>HAMZAH</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Daughter</t>
+          <t>Son</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FARID</t>
+          <t>AZAHARI</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KARTINAH</t>
+          <t>HAMZAH</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -708,46 +708,46 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ARIFF</t>
+          <t>MASTURA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>KARTINAH</t>
+          <t>HAMZAH</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Son</t>
+          <t>Daughter</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IFFAH</t>
+          <t>DZULKARNAIN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>KARTINAH</t>
+          <t>HAMZAH</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Daughter</t>
+          <t>Son</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AWATIF</t>
+          <t>NORA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KARTINAH</t>
+          <t>HAMZAH</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -759,7 +759,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FUZIAH</t>
+          <t>ARBA'IYAH</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HANAFIAH</t>
+          <t>HAFIZAH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -786,19 +786,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Son</t>
+          <t>Daughter</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AZAHARI</t>
+          <t>AZZUBAIR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HAMZAH</t>
+          <t>KARTINAH</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -810,29 +810,29 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MASTURA</t>
+          <t>AMMAR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HAMZAH</t>
+          <t>KARTINAH</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Daughter</t>
+          <t>Son</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NORA</t>
+          <t>IZZAHTI</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HAMZAH</t>
+          <t>KARTINAH</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -844,12 +844,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DZULKARNAIN</t>
+          <t>FARID</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HAMZAH</t>
+          <t>KARTINAH</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -861,29 +861,29 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>ARIFF</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>KARTINAH</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>HAMZAH</t>
-        </is>
-      </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Daughter</t>
+          <t>Son</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ARBA'IYAH</t>
+          <t>IFFAH</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HAMZAH</t>
+          <t>KARTINAH</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -895,12 +895,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HAFIZAH</t>
+          <t>AWATIF</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HAMZAH</t>
+          <t>KARTINAH</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">

--- a/modules/azzubair_family.xlsx
+++ b/modules/azzubair_family.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,6 +909,1128 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AZIZAH</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MARYAM</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AZIAH</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MARYAM</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AMNAH</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MARYAM</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AZEMAN</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MARYAM</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SYAHMI</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AMNAH</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ATIKAH</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AMNAH</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SYAHIR</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AMNAH</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>FAIZ</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AMNAH</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NURUL</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>AMNAH</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>FATINI</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>AMNAH</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AZLIN</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AZIAH</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AZLAN</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>AZIAH</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AZLI</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AZIAH</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AZIM</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AZIAH</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MAZRI</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>AZIZAH</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MAZLI</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AZIZAH</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MARZUKI</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AZIZAH</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MARIZAN</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>AZIZAH</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MASIRAH</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>AZIZAH</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MARFIZI</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>AZIZAH</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MARSYIELA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AZIZAH</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MARIANA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>AZIZAH</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MARIZA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>AZIZAH</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MARYAM</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MAHMOOD</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>AWANG</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MAHMOOD</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>YAAKOB</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MAHMOOD</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ESAH</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MAHMOOD</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SOPIAH</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MAHMOOD</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MARYAM</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SALAMAH</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>YAAKOB</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SALAMAH</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SOPIAH</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SALAMAH</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>AWANG</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SALAMAH</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ESAH</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SALAMAH</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ABDULLAH</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>HUSSIN</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MARIAH</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>HUSSIN</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ABDULLAH</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MEKJA</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MARIAH</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MEKJA</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>NAWI</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MARIAH</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ARIFIN</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MARIAH</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MOHD NOR</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MARIAH</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ZULKIFLI</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MARIAH</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>NORIAH</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MARIAH</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ROSLIZA</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>AWANG</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>FADILAH</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>AWANG</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MEKYAH</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>AWANG</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NORMAH</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>YAAKOB</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ROSDI</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>YAAKOB</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ROSLAN</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>YAAKOB</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>AZMI</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ESAH</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ROHANAH</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ESAH</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ISMAIL</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ESAH</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MAT GHANI</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SOPIAH</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>FADHILAH</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SOPIAH</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>IJAH</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SOPIAH</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>FAIZAL</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SOPIAH</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>AINUR</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SOPIAH</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ROZITA</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SOPIAH</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>NIJE</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SOPIAH</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PIJI</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SOPIAH</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>YATI</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>YAAKOB</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ANI</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>YAAKOB</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ROSILAWATI</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>YAAKOB</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>RUZAIMI</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>YAAKOB</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SITI NADIRAH</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>YAAKOB</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Daughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ROFIZI</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>YAAKOB</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>MAMAT</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>YAAKOB</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Son</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
